--- a/config_1.11/act_ty_phb_config.xlsx
+++ b/config_1.11/act_ty_phb_config.xlsx
@@ -342,13 +342,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>gift_khlb</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>加成礼包</t>
-  </si>
-  <si>
     <t>欢乐达人</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -376,6 +369,14 @@
   </si>
   <si>
     <t>欢乐券达到6万</t>
+  </si>
+  <si>
+    <t>gift_hflb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费礼包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -856,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -954,7 +955,7 @@
         <v>55</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>16</v>
@@ -981,7 +982,7 @@
         <v>18</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O2" s="15" t="s">
         <v>56</v>
@@ -993,10 +994,10 @@
         <v>1</v>
       </c>
       <c r="R2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="S2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
@@ -1013,7 +1014,7 @@
         <v>55</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>16</v>
@@ -1040,7 +1041,7 @@
         <v>18</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O3" s="15" t="s">
         <v>58</v>
@@ -1052,10 +1053,10 @@
         <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="S3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -1238,7 +1239,7 @@
         <v>2000000</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -1261,7 +1262,7 @@
         <v>1200000</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -1284,7 +1285,7 @@
         <v>600000</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -1307,7 +1308,7 @@
         <v>300000</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -1330,7 +1331,7 @@
         <v>200000</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -1353,7 +1354,7 @@
         <v>120000</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -1376,7 +1377,7 @@
         <v>60000</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
